--- a/UnpackedResource/player/animation/언패킹한 애니메이션 파일 목록.xlsx
+++ b/UnpackedResource/player/animation/언패킹한 애니메이션 파일 목록.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NoThinking\UnrealResource\animation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9612" windowHeight="2904"/>
   </bookViews>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'검사(BladeMaster) 애니메이션 파일'!$A$1:$B$35</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>경공</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -293,6 +288,21 @@
   </si>
   <si>
     <t>PSA 파일 구조 http://me3explorer.wikia.com/wiki/PSA_File_Format</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordShield.psa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절하고 리바이벌할때쓰는애니메이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword_Talk_Ani.psa</t>
+  </si>
+  <si>
+    <t>손에 칼쥐고 talk하는 애니메이션</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,7 +474,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,7 +651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -649,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -944,6 +954,22 @@
         <v>28</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B28">
     <sortState ref="A2:B21">
